--- a/data/xlsx/LaterTalk.xlsx
+++ b/data/xlsx/LaterTalk.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>デモ</t>
+          <t>Map_Event_M004_02</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -673,7 +673,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>デモ</t>
+          <t>Map_Event_M004_02</t>
         </is>
       </c>
       <c r="E12" t="n">
